--- a/docs/Материалы/фунциональные требования.xlsx
+++ b/docs/Материалы/фунциональные требования.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Диплом\docs_short\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Диплом\Диплом\docs\Материалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F41FD85-B42B-40B0-94C3-D6BFADFE866D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E501C09-81CE-4B69-871B-4C7BE1673A81}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0AB091F5-D874-42F4-81D8-8731E46DFEE4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{0AB091F5-D874-42F4-81D8-8731E46DFEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Функциональные требования</t>
   </si>
@@ -48,75 +48,68 @@
 и аутентификации пользователя</t>
   </si>
   <si>
-    <t>2. Система обеспечивает возможность пользователю вводить свой пароль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 Создание формы смены пароля по умолчанию
+    <t>2. Система обеспечивает возможность пользователю выбрать из главного меню необходимый функционал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 Создание на всех формах панели с главным меню
 </t>
   </si>
   <si>
-    <t>3. Система обеспечивает возможность пользователю выбрать из главного меню необходимый функционал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 Создание на всех формах панели с главным меню
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Система обеспечивает возможность пользователям просматривать количество клиентов планирующих посетить каждую из зон клуба в течении выбранного дня  </t>
-  </si>
-  <si>
-    <t>4.1 Создание в базе данных таблицы, отражающей планируемые посещения</t>
-  </si>
-  <si>
-    <t>4.2 Создание формы, отражающей количество планируемых посещений за выбранный день</t>
-  </si>
-  <si>
-    <t>5. Система позволяет администратору 
+    <t xml:space="preserve">3. Система обеспечивает возможность пользователям просматривать количество клиентов планирующих посетить каждую из зон клуба в течении выбранного дня  </t>
+  </si>
+  <si>
+    <t>3.1 Создание в базе данных таблицы, отражающей планируемые посещения</t>
+  </si>
+  <si>
+    <t>3.2 Создание формы, отражающей количество планируемых посещений за выбранный день</t>
+  </si>
+  <si>
+    <t>4. Система позволяет администратору 
 управлять учетными данными пользователей</t>
   </si>
   <si>
-    <t>5.1 Создание формы работы с учетными данными (создание, изменение, удаление)</t>
-  </si>
-  <si>
-    <t>5.2 Реализация для администратора 
+    <t>4.1 Создание формы работы с учетными данными (создание, изменение, удаление)</t>
+  </si>
+  <si>
+    <t>4.2 Реализация для администратора 
 возможности создания, изменения, удаления учетных записей</t>
   </si>
   <si>
-    <t>6. Система позволяет администратору
+    <t>5. Система позволяет администратору
 менять данные о фитнес-клубе</t>
   </si>
   <si>
-    <t>6.1 Создание в базе данных таблицы 
+    <t>5.1 Создание в базе данных таблицы 
 с информацией о фитнес-клубе и таблицы о доступных зонах и групповых занятиях</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2 Создание формы работы с данными
+    <t xml:space="preserve">5.2 Создание формы работы с данными
 фитнес-клуба </t>
   </si>
   <si>
-    <t>7. Система позволяет менеджеру 
+    <t>6. Система позволяет менеджеру 
 составлять расписание групповых
 занятий, указывая оптимальное количество присутствующих</t>
   </si>
   <si>
-    <t>7.1 Создание в базе данных таблицы с информацией о расписании занятий с оптимальным количеством присутствующих</t>
-  </si>
-  <si>
-    <t>7.2 Создание формы работы с расписанием</t>
-  </si>
-  <si>
-    <t>8. Система позволяет клиенту заявлять
+    <t>6.1 Создание в базе данных таблицы с информацией о расписании занятий с оптимальным количеством присутствующих</t>
+  </si>
+  <si>
+    <t>6.2 Создание формы работы с расписанием</t>
+  </si>
+  <si>
+    <t>7. Система позволяет клиенту заявлять
 о своем планируемом посещении</t>
   </si>
   <si>
-    <t>8.1 Создание в базе данных таблицы,
+    <t>7.1 Создание в базе данных таблицы,
 отражающей планируемые посещения клиентами</t>
   </si>
   <si>
-    <t>8.2 Обеспечение возможности создания, удаления, изменения планируемых посещений</t>
-  </si>
-  <si>
-    <t>8.3 Создание форм для создания, удаления, изменения планируемых посещений</t>
+    <t>7.2 Обеспечение возможности создания, удаления планируемых посещений</t>
+  </si>
+  <si>
+    <t>7.3 Создание форм для создания, удаления планируемых посещений</t>
   </si>
 </sst>
 </file>
@@ -241,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -261,12 +254,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -277,6 +264,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -304,8 +294,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFDE7140-6312-4B21-80E7-8D0BAAC0D575}" name="Таблица1" displayName="Таблица1" ref="A1:B16" totalsRowShown="0">
-  <autoFilter ref="A1:B16" xr:uid="{B82D1644-2D7E-4005-BFD6-C8456FAA157D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFDE7140-6312-4B21-80E7-8D0BAAC0D575}" name="Таблица1" displayName="Таблица1" ref="A1:B15" totalsRowShown="0">
+  <autoFilter ref="A1:B15" xr:uid="{B82D1644-2D7E-4005-BFD6-C8456FAA157D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D2FAC452-67F9-47B6-9F17-D5DC069548A6}" name="Функциональные требования" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{1DFF6604-EE08-461B-9766-9DDDCCAFD511}" name="В рамках проекта" dataDxfId="0"/>
@@ -611,19 +601,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FBC1F0-06BD-4122-B148-6FA44FEE485D}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,110 +621,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Материалы/фунциональные требования.xlsx
+++ b/docs/Материалы/фунциональные требования.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Диплом\Диплом\docs\Материалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Диплом\docs\Материалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E501C09-81CE-4B69-871B-4C7BE1673A81}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E0FEF4-ABE3-4D48-A388-7AEE3685398A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{0AB091F5-D874-42F4-81D8-8731E46DFEE4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0AB091F5-D874-42F4-81D8-8731E46DFEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Функциональные требования</t>
   </si>
@@ -48,68 +48,80 @@
 и аутентификации пользователя</t>
   </si>
   <si>
-    <t>2. Система обеспечивает возможность пользователю выбрать из главного меню необходимый функционал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 Создание на всех формах панели с главным меню
+    <t>2. Система обеспечивает возможность пользователю сменить пароль или восстановить его в случае потери</t>
+  </si>
+  <si>
+    <t>2.1 Реализация функционала сброса старого пароля и ввода нового</t>
+  </si>
+  <si>
+    <t>3. Система обеспечивает возможность пользователю выбрать из главного меню необходимый функционал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 Создание на всех формах панели с главным меню
 </t>
   </si>
   <si>
-    <t xml:space="preserve">3. Система обеспечивает возможность пользователям просматривать количество клиентов планирующих посетить каждую из зон клуба в течении выбранного дня  </t>
-  </si>
-  <si>
-    <t>3.1 Создание в базе данных таблицы, отражающей планируемые посещения</t>
-  </si>
-  <si>
-    <t>3.2 Создание формы, отражающей количество планируемых посещений за выбранный день</t>
-  </si>
-  <si>
-    <t>4. Система позволяет администратору 
+    <t xml:space="preserve">4. Система обеспечивает возможность пользователям просматривать количество клиентов планирующих посетить каждую из зон клуба в течении выбранного дня  </t>
+  </si>
+  <si>
+    <t>4.1 Создание в базе данных таблицы, отражающей планируемые посещения</t>
+  </si>
+  <si>
+    <t>4.2 Создание формы, отражающей количество планируемых посещений за выбранный день в выбранной локации</t>
+  </si>
+  <si>
+    <t>5. Система позволяет администратору 
 управлять учетными данными пользователей</t>
   </si>
   <si>
-    <t>4.1 Создание формы работы с учетными данными (создание, изменение, удаление)</t>
-  </si>
-  <si>
-    <t>4.2 Реализация для администратора 
+    <t>5.1 Создание формы работы с учетными данными (создание, изменение, удаление)</t>
+  </si>
+  <si>
+    <t>5.2 Реализация для администратора 
 возможности создания, изменения, удаления учетных записей</t>
   </si>
   <si>
-    <t>5. Система позволяет администратору
+    <t>6. Система позволяет администратору
 менять данные о фитнес-клубе</t>
   </si>
   <si>
-    <t>5.1 Создание в базе данных таблицы 
-с информацией о фитнес-клубе и таблицы о доступных зонах и групповых занятиях</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2 Создание формы работы с данными
+    <t xml:space="preserve">6.2 Создание формы работы с данными
 фитнес-клуба </t>
   </si>
   <si>
-    <t>6. Система позволяет менеджеру 
+    <t>7.1 Создание в базе данных таблицы с информацией о расписании занятий с оптимальным количеством присутствующих</t>
+  </si>
+  <si>
+    <t>7.2 Создание формы работы с расписанием</t>
+  </si>
+  <si>
+    <t>8. Система позволяет клиенту заявлять
+о своем планируемом посещении</t>
+  </si>
+  <si>
+    <t>8.1 Создание в базе данных таблицы,
+отражающей планируемые посещения клиентами</t>
+  </si>
+  <si>
+    <t>8.2 Обеспечение возможности создания, удаления планируемых посещений</t>
+  </si>
+  <si>
+    <t>8.3 Создание форм для создания, удаления планируемых посещений</t>
+  </si>
+  <si>
+    <t>6.1 Создание в базе данных таблицы 
+с информацией о фитнес-клубе и таблицы о доступных зонах и групповых занятиях, графике работы, клубных картах</t>
+  </si>
+  <si>
+    <t>9. Система позволяет менеджеру контролировать загруженность фитнес-клуба</t>
+  </si>
+  <si>
+    <t>9.1 Обеспечение возможности просмотра списка планирующих посещение в выбранный день и в выбранной локации</t>
+  </si>
+  <si>
+    <t>7. Система позволяет менеджеру 
 составлять расписание групповых
-занятий, указывая оптимальное количество присутствующих</t>
-  </si>
-  <si>
-    <t>6.1 Создание в базе данных таблицы с информацией о расписании занятий с оптимальным количеством присутствующих</t>
-  </si>
-  <si>
-    <t>6.2 Создание формы работы с расписанием</t>
-  </si>
-  <si>
-    <t>7. Система позволяет клиенту заявлять
-о своем планируемом посещении</t>
-  </si>
-  <si>
-    <t>7.1 Создание в базе данных таблицы,
-отражающей планируемые посещения клиентами</t>
-  </si>
-  <si>
-    <t>7.2 Обеспечение возможности создания, удаления планируемых посещений</t>
-  </si>
-  <si>
-    <t>7.3 Создание форм для создания, удаления планируемых посещений</t>
+занятий, указывая оптимальное количество присутствующих, удалять (в случае отсутствия записавшихся) и отменять занятия</t>
   </si>
 </sst>
 </file>
@@ -134,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -230,11 +242,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -248,9 +286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -267,6 +302,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -294,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFDE7140-6312-4B21-80E7-8D0BAAC0D575}" name="Таблица1" displayName="Таблица1" ref="A1:B15" totalsRowShown="0">
-  <autoFilter ref="A1:B15" xr:uid="{B82D1644-2D7E-4005-BFD6-C8456FAA157D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFDE7140-6312-4B21-80E7-8D0BAAC0D575}" name="Таблица1" displayName="Таблица1" ref="A1:B17" totalsRowShown="0">
+  <autoFilter ref="A1:B17" xr:uid="{B82D1644-2D7E-4005-BFD6-C8456FAA157D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D2FAC452-67F9-47B6-9F17-D5DC069548A6}" name="Функциональные требования" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{1DFF6604-EE08-461B-9766-9DDDCCAFD511}" name="В рамках проекта" dataDxfId="0"/>
@@ -601,19 +654,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FBC1F0-06BD-4122-B148-6FA44FEE485D}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -621,102 +674,118 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="11" t="s">
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="14" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
